--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\CovidActNowAPIClient\StateOfTexas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4BB66-64ED-4B1C-9873-020FDBED8500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607A67EF-C680-45DD-A846-A01BB74660AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>County</t>
   </si>
@@ -830,6 +830,15 @@
   </si>
   <si>
     <t>New Cases 11-30</t>
+  </si>
+  <si>
+    <t>New Cases 12-01</t>
+  </si>
+  <si>
+    <t>New Cases 12-02</t>
+  </si>
+  <si>
+    <t>New Cases 12-03</t>
   </si>
   <si>
     <t>Collin</t>
@@ -1203,34 +1212,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JJ2"/>
+  <dimension ref="A1:JM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="IC2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="IY15" sqref="IY15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="196" width="12" customWidth="1"/>
-    <col min="197" max="197" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="198" max="205" width="12" customWidth="1"/>
-    <col min="206" max="207" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="208" max="238" width="12" customWidth="1"/>
-    <col min="239" max="239" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="240" max="241" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="242" max="258" width="12" customWidth="1"/>
-    <col min="259" max="259" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="260" max="265" width="12" customWidth="1"/>
-    <col min="266" max="266" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="267" max="270" width="12" customWidth="1"/>
+    <col min="1" max="273" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:273" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,10 +2034,19 @@
       <c r="JJ1" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="JK1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2852,6 +2854,15 @@
       </c>
       <c r="JJ2">
         <v>408</v>
+      </c>
+      <c r="JK2">
+        <v>390</v>
+      </c>
+      <c r="JL2">
+        <v>561</v>
+      </c>
+      <c r="JM2">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607A67EF-C680-45DD-A846-A01BB74660AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA52E0-C903-4778-9A3D-D35B20CCC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>County</t>
   </si>
@@ -839,6 +839,18 @@
   </si>
   <si>
     <t>New Cases 12-03</t>
+  </si>
+  <si>
+    <t>New Cases 12-04</t>
+  </si>
+  <si>
+    <t>New Cases 12-05</t>
+  </si>
+  <si>
+    <t>New Cases 12-06</t>
+  </si>
+  <si>
+    <t>New Cases 12-07</t>
   </si>
   <si>
     <t>Collin</t>
@@ -1212,18 +1224,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JM2"/>
+  <dimension ref="A1:JQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="273" width="12" customWidth="1"/>
+    <col min="1" max="277" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:277" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,10 +2055,22 @@
       <c r="JM1" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="JN1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2863,6 +2887,18 @@
       </c>
       <c r="JM2">
         <v>295</v>
+      </c>
+      <c r="JN2">
+        <v>257</v>
+      </c>
+      <c r="JO2">
+        <v>442</v>
+      </c>
+      <c r="JP2">
+        <v>692</v>
+      </c>
+      <c r="JQ2">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA52E0-C903-4778-9A3D-D35B20CCC8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8AD60-4582-47C4-8991-19832CECF251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>County</t>
   </si>
@@ -851,6 +851,12 @@
   </si>
   <si>
     <t>New Cases 12-07</t>
+  </si>
+  <si>
+    <t>New Cases 12-08</t>
+  </si>
+  <si>
+    <t>New Cases 12-09</t>
   </si>
   <si>
     <t>Collin</t>
@@ -1224,18 +1230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JQ2"/>
+  <dimension ref="A1:JS2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="277" width="12" customWidth="1"/>
+    <col min="1" max="279" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:277" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:279" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,10 +2073,16 @@
       <c r="JQ1" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="JR1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2899,6 +2911,12 @@
       </c>
       <c r="JQ2">
         <v>313</v>
+      </c>
+      <c r="JR2">
+        <v>235</v>
+      </c>
+      <c r="JS2">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8AD60-4582-47C4-8991-19832CECF251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7586E9F7-3B84-4A8A-B891-9B4558F526A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>County</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>New Cases 12-09</t>
+  </si>
+  <si>
+    <t>New Cases 12-10</t>
   </si>
   <si>
     <t>Collin</t>
@@ -1230,18 +1233,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JS2"/>
+  <dimension ref="A1:JT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="279" width="12" customWidth="1"/>
+    <col min="1" max="280" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:279" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2079,10 +2082,13 @@
       <c r="JS1" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="JT1" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2917,6 +2923,9 @@
       </c>
       <c r="JS2">
         <v>428</v>
+      </c>
+      <c r="JT2">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7586E9F7-3B84-4A8A-B891-9B4558F526A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768077B-C428-4C47-803D-254875387C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>County</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>New Cases 12-10</t>
+  </si>
+  <si>
+    <t>New Cases 12-11</t>
   </si>
   <si>
     <t>Collin</t>
@@ -1233,18 +1236,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JT2"/>
+  <dimension ref="A1:JU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="280" width="12" customWidth="1"/>
+    <col min="1" max="281" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:281" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,10 +2088,13 @@
       <c r="JT1" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="JU1" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2926,6 +2932,9 @@
       </c>
       <c r="JT2">
         <v>493</v>
+      </c>
+      <c r="JU2">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768077B-C428-4C47-803D-254875387C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E874194-5867-4F94-9AEF-46CFA5916731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>County</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>Collin</t>
+  </si>
+  <si>
+    <t>New Cases 12-12</t>
   </si>
 </sst>
 </file>
@@ -917,11 +920,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JU2"/>
+  <dimension ref="A1:JV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="JA1" workbookViewId="0">
+      <selection activeCell="JV2" sqref="JV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1254,7 @@
     <col min="1" max="281" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:281" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:282" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,8 +2098,11 @@
       <c r="JU1" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="JV1" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -2935,6 +2945,9 @@
       </c>
       <c r="JU2">
         <v>506</v>
+      </c>
+      <c r="JV2" s="3">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E874194-5867-4F94-9AEF-46CFA5916731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF5572-2CE5-4A63-AE79-FE5D2A80CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Cases by County" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>County</t>
   </si>
@@ -869,6 +869,9 @@
   </si>
   <si>
     <t>New Cases 12-12</t>
+  </si>
+  <si>
+    <t>New Cases 12-13</t>
   </si>
 </sst>
 </file>
@@ -920,11 +923,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JV2"/>
+  <dimension ref="A1:JW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JA1" workbookViewId="0">
-      <selection activeCell="JV2" sqref="JV2"/>
+    <sheetView tabSelected="1" topLeftCell="JB1" workbookViewId="0">
+      <selection activeCell="JP10" sqref="JP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1261,7 @@
     <col min="1" max="281" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:282" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:283" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2101,8 +2108,11 @@
       <c r="JV1" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="JW1" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:283" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -2948,6 +2958,9 @@
       </c>
       <c r="JV2" s="3">
         <v>583</v>
+      </c>
+      <c r="JW2" s="5">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF5572-2CE5-4A63-AE79-FE5D2A80CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121E45D-7B14-4C3C-B33F-C8A0005DBD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>County</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>New Cases 12-13</t>
+  </si>
+  <si>
+    <t>New Cases 12-14</t>
   </si>
 </sst>
 </file>
@@ -923,11 +926,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JW2"/>
+  <dimension ref="A1:JX2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="JB1" workbookViewId="0">
-      <selection activeCell="JP10" sqref="JP10"/>
+      <selection activeCell="JX2" sqref="JX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1268,7 @@
     <col min="1" max="281" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:283" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:284" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,8 +2118,11 @@
       <c r="JW1" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="JX1" s="6" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="2" spans="1:283" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:284" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -2961,6 +2971,9 @@
       </c>
       <c r="JW2" s="5">
         <v>426</v>
+      </c>
+      <c r="JX2" s="7">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
+++ b/Services/StateOfTexas/Data/TexasCOVID19NewConfirmedCasesbyCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121E45D-7B14-4C3C-B33F-C8A0005DBD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5CF65-2E49-4CDC-AF60-A50E1DC578F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>County</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>New Cases 12-14</t>
+  </si>
+  <si>
+    <t>New Cases 12-15</t>
   </si>
 </sst>
 </file>
@@ -926,11 +929,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JX2"/>
+  <dimension ref="A1:JY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JB1" workbookViewId="0">
-      <selection activeCell="JX2" sqref="JX2"/>
+    <sheetView tabSelected="1" topLeftCell="JC1" workbookViewId="0">
+      <selection activeCell="JP13" sqref="JP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1275,7 @@
     <col min="1" max="281" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:285" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,8 +2128,11 @@
       <c r="JX1" s="6" t="s">
         <v>284</v>
       </c>
+      <c r="JY1" s="8" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="2" spans="1:284" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>281</v>
       </c>
@@ -2974,6 +2984,9 @@
       </c>
       <c r="JX2" s="7">
         <v>586</v>
+      </c>
+      <c r="JY2" s="9">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
